--- a/SpringCloud/SpringCloud-Eureka.xlsx
+++ b/SpringCloud/SpringCloud-Eureka.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13884"/>
+    <workbookView windowWidth="26268" windowHeight="13884" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,18 +19,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,9 +39,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -62,9 +62,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -77,23 +85,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,23 +102,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,8 +144,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,24 +160,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,7 +185,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -204,175 +359,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,22 +379,41 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -433,23 +445,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,174 +476,162 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2092,6 +2088,2490 @@
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="圆角矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5250180" y="1135380"/>
+          <a:ext cx="6499860" cy="640080"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+            <a:t>Eureka</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400"/>
+            <a:t>客户端原理基础</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>（微服务实战</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>翟永超）</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="圆角矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3535680" y="1905000"/>
+          <a:ext cx="9540240" cy="8694420"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="圆角矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4259580" y="4046220"/>
+          <a:ext cx="2263140" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>配置文件</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="圆角矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4251960" y="2446020"/>
+          <a:ext cx="2263140" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>EurekaClient</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>客户端</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>445770</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>453390</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直接箭头连接符 5"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5383530" y="3131820"/>
+          <a:ext cx="7620" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>610235</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="单圆角矩形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5532120" y="3467100"/>
+          <a:ext cx="633095" cy="297180"/>
+        </a:xfrm>
+        <a:prstGeom prst="round1Rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>读取</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="圆角矩形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4251960" y="5501640"/>
+          <a:ext cx="2263140" cy="1539240"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Region:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>客户端通过</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>getRegion</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>函数从配置文件中读取一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Region</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>返回，一个微服务只可以属于一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Region.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>如果不特别配置，默认为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>default</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>，如果我们要自己设置，可以通过</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>eureka.client.region</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>属性来定义</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>445770</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>453390</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直接箭头连接符 8"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5383530" y="4732020"/>
+          <a:ext cx="7620" cy="769620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>213995</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="单圆角矩形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5471160" y="4937760"/>
+          <a:ext cx="915035" cy="297180"/>
+        </a:xfrm>
+        <a:prstGeom prst="round1Rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>获取</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Region</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="圆角矩形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4069080" y="7513320"/>
+          <a:ext cx="960120" cy="449580"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Zone</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="圆角矩形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5593080" y="7505700"/>
+          <a:ext cx="960120" cy="441960"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Zone</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>445770</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直接箭头连接符 12"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4549140" y="7040880"/>
+          <a:ext cx="834390" cy="472440"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>445770</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直接箭头连接符 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="12" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5383530" y="7040880"/>
+          <a:ext cx="689610" cy="464820"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="圆角矩形 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3909060" y="8221980"/>
+          <a:ext cx="2781300" cy="1950720"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Zone:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>通过</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>getAvailabilityZones</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>函数，可以获取</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Zone</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>，没有特别设置的情况下获取的是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DefaultZone</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>，如果要指定</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Zone</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>，可以通过</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>eureka.client.availability-zones</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>属性进行设置。从</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>getAvailabilityZones</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>函数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>返回值</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>可以</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>知道</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Z</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>one</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>可以</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>设置</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>多</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>其实</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>就</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>defaultZ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>on</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>e</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>配置</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>那个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>逗号</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>分隔</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>urekaS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>erver</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>远程</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>地址</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>R</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>egion</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Z</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>one</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>一</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>对</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>多</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>关系</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="圆角矩形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6957060" y="2026920"/>
+          <a:ext cx="5273040" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>在获取到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Region</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Zone</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>之后，才开始真正加载</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Eureka Server</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>的具体地址。它根据传入的参数按一定的算法确定加载位于哪一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Zone</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>配置的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ServiceUrl</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>67945</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="圆角矩形 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7063740" y="3230880"/>
+          <a:ext cx="5273040" cy="1043305"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>我们在微服务中使用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Ribbon</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>实现服务调用时，对于</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Zone</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>的设置可以在负载均衡时实现  区域亲和 特性：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Ribbon</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>的默认政策会优先访问和客户端处于同一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Zone</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>中的服务端实例（目前理解 为：同一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Zone  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>也就是同一个注册中心），只有当同一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Zone</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>中没有可用的实例时才会访问其他</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Zone</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>中的实例</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:sym typeface="+mn-ea"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -2390,8 +4870,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="W34" sqref="W34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2406,17 +4886,22 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="30" spans="6:6">
+      <c r="F30" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/SpringCloud/SpringCloud-Eureka.xlsx
+++ b/SpringCloud/SpringCloud-Eureka.xlsx
@@ -18,10 +18,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -40,7 +40,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -48,7 +48,51 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -79,66 +123,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,14 +132,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,6 +152,29 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -185,7 +185,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -197,43 +221,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,7 +251,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,7 +269,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,55 +299,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,13 +329,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,13 +359,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,41 +379,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -445,8 +430,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,16 +462,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -484,10 +484,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -499,130 +499,130 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3617,7 +3617,16 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>函数</a:t>
+            <a:t>函数的返回值，可以知道</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Zone</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US">
@@ -3626,7 +3635,16 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>的</a:t>
+            <a:t>可以设置多个（其实就是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>defaultZone</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US">
@@ -3635,7 +3653,16 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>返回值</a:t>
+            <a:t>配置的那个用逗号分隔的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>EurekaServer</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US">
@@ -3644,7 +3671,16 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>，</a:t>
+            <a:t>远程地址），</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Region</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US">
@@ -3653,7 +3689,16 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>可以</a:t>
+            <a:t>和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Zone</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US">
@@ -3662,349 +3707,7 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>知道</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>Z</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>one</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>可以</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>设置</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>多</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>个</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>其实</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>就</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>是</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>defaultZ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>on</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>e</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>配置</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>那个</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>用</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>逗号</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>分隔</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>E</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>urekaS</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>erver</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>远程</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>地址</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>）</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>R</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>egion</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>和</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>Z</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>one</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>是</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>一</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>对</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>多</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>关系</a:t>
+            <a:t>是一对多的关系</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -4572,6 +4275,1496 @@
               <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>29845</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="圆角矩形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7414260" y="4777740"/>
+          <a:ext cx="5440680" cy="5676265"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>关于</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>region</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>Zone</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>         </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>了解</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>Region</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>Zone</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>的概念之前，先了解这两种概念的产生背景。用户量比较大或者用户地理位置分布比较广的项目，一般会有多个机房。这个时候如果上线</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>SpringCloud</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>服务的话，我们希望一个机房内的消费者服务优先调用同一个机房内的提供者服务，当同一个机房内的服务不可用的时候再去调用其他机房的服务，以达到减少延时的作用。</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>Eureka</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>中，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>Region</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>Zone</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>就是用来区分服务的地理位置和机房号的。</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>         Region</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>：可以理解为地理上的分区，比如亚洲地区，华北地区或者北京等。可以根据实际情况进行分区，没有大小限制。这是一个大区域的划分，用以区分不同大区域的机房组（因为一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>Region</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>下一般会有多个机房，所以我把它称为机房组）</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>          Zone</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>：可以理解为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>Region</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>大区中的一个个具体的机房，比如说在北京区域我们布置了两个机房，分别命名为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>Zone-1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>Zone-2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>这样的情况下，可以在配置文件中进行如下配置：</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>  client:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>    register-with-eureka: true</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>    fetch-registry: true</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>    prefer-same-zone-eureka: true</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>    #地区</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>    region: beijing</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>    availability-zones:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>      beijing: zone-2,zone-1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>    service-url:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>      zone-1: http://localhost:30000/eureka/</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>      zone-2: http://localhost:30001/eureka/</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>93980</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>81915</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>375920</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="圆角矩形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13672820" y="2093595"/>
+          <a:ext cx="9540240" cy="8694420"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="圆角矩形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14866620" y="1348740"/>
+          <a:ext cx="7139940" cy="624840"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400"/>
+            <a:t>服务注册</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400"/>
+            <a:t>续约</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400"/>
+            <a:t>剔除</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="圆角矩形 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13830300" y="4465320"/>
+          <a:ext cx="4015740" cy="1668780"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>服务获取：</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    默认的服务获取时间配置：</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>             </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>eureka.client.registry-fetch-interval-seconds=30</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>       </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>也就是说，默认每</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>30</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>秒</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Eureka</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>服务端会从</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Eureka</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>客户端获取一次服务列表</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>还有一个涉及到服务获取的配置是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>fetch-registry</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>，决定是否从</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Zone</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>中获取服务 默认</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>true</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>        </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="圆角矩形 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13845540" y="6362700"/>
+          <a:ext cx="4015740" cy="1668780"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>服务注册：</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>     服务注册比较简单，相关的比较常见的配置参数是</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>	eureka.client.register-with-eureka</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>默认</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>true</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="圆角矩形 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13853160" y="8305800"/>
+          <a:ext cx="4015740" cy="1668780"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>服务续约</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>    服务续约涉及到两个参数的配置，其一是续约时间，俗称心跳时间间隔；另一个是服务的剔除时间，也就是多久没收到服务的心跳就将服务从列表中剔除（这个时间在服务保护期间会失效），涉及到的参数配置</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>eureka.instance.lease-renewal-interval-in-seconds=30</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>（默认）</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>eureka.instance.lease-expiration-duration-in-seconds=90(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>默认</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>570865</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="圆角矩形 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13959840" y="2636520"/>
+          <a:ext cx="3893185" cy="1653540"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>从</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Eureka</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>源码的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>initScheduledTasks</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>函数中，有两个定时任务，分别涉及到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>“</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>服务获取</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>”</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>”</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>服务续约</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>”</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>。阅读源码可以发现，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>“</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>服务获取</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>”</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>相对比较独立，而</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>“</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>服务续约</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>”</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>“</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>服务注册</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>”</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>位于同一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>if</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>逻辑中。（这就意味着，在服务注册的哦同时，服务续约的相关配置也确定下来，比如说续约时间（和续约时间一起的还有一个剔除时间））</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -4888,8 +6081,8 @@
   <sheetPr/>
   <dimension ref="F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+    <sheetView tabSelected="1" topLeftCell="N7" workbookViewId="0">
+      <selection activeCell="AF37" sqref="AF37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>

--- a/SpringCloud/SpringCloud-Eureka.xlsx
+++ b/SpringCloud/SpringCloud-Eureka.xlsx
@@ -18,10 +18,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -40,6 +40,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -48,7 +118,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -70,14 +155,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,85 +170,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,25 +191,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,7 +221,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,13 +239,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,19 +257,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,6 +287,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -299,13 +317,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,37 +347,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,13 +359,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,15 +376,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -399,6 +390,56 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -430,49 +471,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,10 +484,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -496,97 +496,97 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -595,34 +595,34 @@
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4586,8 +4586,8 @@
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>375920</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>80645</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4597,7 +4597,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13672820" y="2093595"/>
-          <a:ext cx="9540240" cy="8694420"/>
+          <a:ext cx="9540240" cy="13531850"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4811,16 +4811,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4829,7 +4829,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13830300" y="4465320"/>
+          <a:off x="18691860" y="2575560"/>
           <a:ext cx="4015740" cy="1668780"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4857,12 +4857,20 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>服务获取：</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>服务获取</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -5053,15 +5061,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5070,7 +5078,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13845540" y="6362700"/>
+          <a:off x="13921740" y="4427220"/>
           <a:ext cx="4015740" cy="1668780"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -5197,12 +5205,20 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>服务注册：</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>服务注册</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -5264,16 +5280,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5282,7 +5298,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13853160" y="8305800"/>
+          <a:off x="18745200" y="4442460"/>
           <a:ext cx="4015740" cy="1668780"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -5409,7 +5425,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -5762,6 +5778,997 @@
             <a:t>逻辑中。（这就意味着，在服务注册的哦同时，服务续约的相关配置也确定下来，比如说续约时间（和续约时间一起的还有一个剔除时间））</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>290195</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="圆角矩形 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13738860" y="6332220"/>
+          <a:ext cx="9388475" cy="1173480"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+            <a:t>元数据</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>： 在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>EurekaInstanceConfigBean</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的配置信息中，有一大部分内容是对服务实例元数据的配置，所谓元数据，九是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Eureka</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>客户端向注册中心发送注册请求时，用来描述自身服务信息的对象，，其中包含了一些标准化的元数据，比如服务名称、实例名称、实例</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>IP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>、实例端口等用于服务治理的重要信息（相当于告诉注册中心你是谁？你在哪）；以及一些用于负载均衡策略或是其他特殊用途的自定义元数据信息。</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>在使用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Eureka</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>的时候，所有配置信息都通过</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>EurekaInstanceConfigBean</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>进行加载，但是在真正进行服务注册的时候，还是会包装成</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>InstanceInfo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>对象发送给</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Eureka</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>服务端，这两个类的定义非常相似（详情看源码）   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>以下对一些常用元数据做简单介绍：</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>426085</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="圆角矩形 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13815060" y="7658100"/>
+          <a:ext cx="3893185" cy="2156460"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>实例名配置</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：实例名即</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>InstanceInfo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>中的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>instanceId</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>参数，它是区分统一服务中不同实例的唯一标识（当一个微服务部署了多个实例时，在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Eureka</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>控制台中</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Status</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>那一栏中</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>UP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>状态后面跟着的就是实例名），对于实例名的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>命名规则</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>可以通过</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>eureka.instance.instanceId</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>参数进行配置。</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>使用场景</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>在一些应用的开发和测试环境中，有些实例运行的版本可能缺少一些功能，但是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ribbon</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>又做了负载均衡，将这些新功能的请求转发到了缺少功能的服务上，会造成错误响应，如果</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Eureka</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>界面显示版本号，我们就能先行定位问题的来源是不是版本问题。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>616585</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="圆角矩形 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18943320" y="7650480"/>
+          <a:ext cx="3893185" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>端点配置</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>InstanceInfo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>中，我们可以看到一些</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>URL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>配置信息，比如</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>homePageUrl</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>statusPageUrl</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>healthCheckUrl</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>，他们分别代表了应用主页的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Url</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>。状态页</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>url</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>和健康检查的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>URL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>，其中，状态页和健康检查的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>URL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Spring Cloud Eureka</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>中默认使用了</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>spring-boot-actuator</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>模块提供的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>/info</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>端点和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>/health</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>端点。</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>在一些场景下，我们为应用设置了</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>context-path</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>，这时，所有的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>spring-boot-actuator</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>模块的监控端点都会增加一个前缀，在我们需要调用这种配置了</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>context-path</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>的服务时，需要在调用方加上前缀信息，否则会出现访问不到的情况。此外，还有一种特殊情况，当我们使用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>https</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>的方式暴露服务时，默认的使用相对路径进行配置的方式无法再进行访问，这种情况下也需要进行端点的配置。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -6081,8 +7088,8 @@
   <sheetPr/>
   <dimension ref="F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N7" workbookViewId="0">
-      <selection activeCell="AF37" sqref="AF37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>

--- a/SpringCloud/SpringCloud-Eureka.xlsx
+++ b/SpringCloud/SpringCloud-Eureka.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26268" windowHeight="13884" activeTab="1"/>
+    <workbookView windowWidth="22488" windowHeight="9120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,10 +39,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -53,9 +70,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -69,9 +101,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,14 +130,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -110,30 +140,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,29 +170,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,7 +185,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -197,7 +293,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -209,163 +353,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,6 +376,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -403,36 +457,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -440,30 +464,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,10 +484,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -496,133 +496,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -701,13 +701,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>556260</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>213360</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>27940</xdr:rowOff>
+      <xdr:rowOff>43180</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -716,7 +716,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3642360" y="2209800"/>
+          <a:off x="3642360" y="2225040"/>
           <a:ext cx="2743200" cy="2024380"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -842,8 +842,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>173990</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -853,7 +853,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4800600" y="5745480"/>
-          <a:ext cx="3482340" cy="1560830"/>
+          <a:ext cx="3482340" cy="2018030"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1754,7 +1754,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>开源包中的内容</a:t>
+            <a:t>闭源包中的内容</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -1977,7 +1977,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>接口的一个实现，在实现的过程中以来了</a:t>
+            <a:t>接口的一个实现，在实现的过程中依赖了</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
@@ -5846,7 +5846,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>的配置信息中，有一大部分内容是对服务实例元数据的配置，所谓元数据，九是</a:t>
+            <a:t>的配置信息中，有一大部分内容是对服务实例元数据的配置，所谓元数据，就是</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
@@ -7071,7 +7071,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y20" sqref="Y20"/>
+      <selection activeCell="S40" sqref="S40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -7088,8 +7088,8 @@
   <sheetPr/>
   <dimension ref="F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="J4" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
